--- a/QE Statistik V2/hasilQE_new/QE_Stat_V2_testing_result_when_time.xlsx
+++ b/QE Statistik V2/hasilQE_new/QE_Stat_V2_testing_result_when_time.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adi/Desktop/TA_Adi_V2/QE Statistik V2/hasilQE_new/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{948B4F56-5368-694B-98F6-C13CF7FBC96F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06021179-8E22-4444-90F3-8235B91AF49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QE_Stat_V2_testing_result_when_" sheetId="1" r:id="rId1"/>
@@ -1275,7 +1275,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1313,7 +1313,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
